--- a/01.設計/処理設計_ARアプリ_backend.xlsx
+++ b/01.設計/処理設計_ARアプリ_backend.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keiko.kawamura\Documents\20190902_AR\GitHub_Document\msar_Documents\01.設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9BB08-B271-4BBB-9A37-D5769B02F11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="0" windowWidth="18100" windowHeight="9690" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="処理一覧" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="6" r:id="rId2"/>
     <sheet name="バッチ処理" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="138">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -311,11 +325,301 @@
     <t>WebAPI</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>処理に成功しているが、取得したデータが前回取得データと同一の場合。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Items": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "album": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "X7CAA8F3E0C980C38B1D3C5482DC735F4DFCD076B": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00004.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "X0A256C6675478FD8244DD20C9861EC716A6741BD": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00007.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "XD28E9A85342B8FC8F612009D202865004FE0F28D": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00005.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "XF8C34F6A5DE91B8EE370C531D19508B59B6B7367": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00002.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "X14F3BEB8B95E6116A26727836D768DC0DBF31064": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00003.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "XDA5D14786773AF11FFF9642A1F3A0B294A2CAB09": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00001.mp4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "X24A17914C554D5E8F5F387D27FA949AC8559D8A2": "https://msar.s3-ap-northeast-1.amazonaws.com/video/AB00001/VD00006.mp4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "description": "テスト用アルバム",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "albumid": "13100018",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "data": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "dat_file": "https://msar.s3-ap-northeast-1.amazonaws.com/vuforia/AB00001/AB00001.dat",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "xml_file": "https://msar.s3-ap-northeast-1.amazonaws.com/vuforia/AB00001/AB00001.xml"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           “updatetime”:” 2019-10-10T12:09:26+09:00”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Count": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ScannedCount": 1</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>1 : {</t>
+  </si>
+  <si>
+    <t>M : {</t>
+  </si>
+  <si>
+    <t>anchor_image : {</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8xLzEuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9YmlVa2UxNGFzZUwxdHdTTGx5cTFRdVdSdDFGc3JqY1NmSFd2dC1BZkFDMFBxdlhkS09qdzlHc2F4ZkJsR2NPSlF0SFppZXlYenFLeDlURGVpd2JzQTFzTEdlUkFJVDZJMndwajRvaWdZblVNOG00SDlZTFhCLXZIVnFFS0lxNGNUQWVabXgzdmpRLVFhVEFNLWduWElld1hJNlJlfmhwNkV5VzFjdXlQVnNFb0ZKVUFoblZId3F2Nm51bnJVaTZXRlU4b2JxcW9QeVdoSnliYmIwZDZtY3NHaHRwZUE4WkJoamNUNWlSWEZmVklQNWZyVjh5cn4zY2t2VUVrNmNuSlZTU0paU1R4c0w2Y3RRcldYWWJlT1RSVXB3NFh2NWd2UEZvd0NoZXJGelo0ZGJ0anlZQzVKekRuRXhpfmxKNmlDeFQteEpCZTBrVzJ0MFU2TXpmen53X18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>description: {</t>
+  </si>
+  <si>
+    <t>S:"納品用パンフレット"</t>
+  </si>
+  <si>
+    <t>image : {</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8xLzEuSlBHP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1hQ1hoUkRDMUZsOVBnSXBTY0dRS1dCYm5ORGxjfklTY043LS1ROGl4YkRXeVJlZDhnMFJieGEycU9SMGFEQlRKc0Z1fnkwMVFKOGdYVVRNb2RuMmVOUG1GME5KOFNQZXJ+VVZiek9qMzExWW9tb1RFNW1kdEdkWjBsaFNEbndTc2ltYVVjRGxNek9weTVuVTNuZDFGMi1zZ1RJUE02OVVUVlJkdmx+Q1M0d1ZTajlGb0xUVUhMSmVONHRJV2NoMXg5UndtNVd2clZoakE2RFMwSn5RUUlsYjBlTUp4TjdHUk93MzZWWHBLflV3VWY1Sm5qOU9zNVY2Q1loRHV4OFk0YWZOeE94V0dtNWM1MkRTNkF6eUx2MDJ1U3ZVd1BscGo2aEJkLTRDeU9BSDctYXJnemVCSXM2cy1Gc35kM0NMLXRwSklvVkpLb3NQTFdEUDlla2ZCbWdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="</t>
+  </si>
+  <si>
+    <t>rating : {</t>
+  </si>
+  <si>
+    <t>S:"5"</t>
+  </si>
+  <si>
+    <t>status : {</t>
+  </si>
+  <si>
+    <t>S:"SUCCEED"</t>
+  </si>
+  <si>
+    <t>video : {</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8xLzEubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1sUjZubDFPTDhmN3BNR1R+TWV2YnFwWkhvVTlJcjc3Z2NZZVpnQUxIZUR+Qk90ZkhON2c3ZmFhWWV4aHVyfjgzdTZnfmVvTUNaUUhTUS0zeGI2a1d6b1RHZEpjak12cDVQRmx5Q3lmTVU0RFpDYUVDWXYxQ0tsRjFBVEZTUkZKRUxwU2Z5aGtwQUVPSEZ6T0RYLWxVLXdYM0FwV2dkOFBXZ2IyUnhhZ0dkNElQMEhPaFlJczh3TFV6NjNCQ0wtQUVxczgwMXFVNG8td35aOFdTTFg3QUZyQWJBcXNXNG9tVUpQMXhLUEVSTjRaZXQwbE5NbHhnfmJnaWJvTXhaRnJMWktXdGo5QTEwMllnTjA0WnRPRWJQWFZUMGUzLVZWMlNBWE1CNktuYlBwVHZKUEN+QzN0Ynh0MENwY3J+dUVlODlOaHc5ZW8tTUlrMVBZfjYwVkdVeGdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="</t>
+  </si>
+  <si>
+    <t>2 : {</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8yLzIuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9SEtlRHp2bDJkSFZPQWZifjdCQkliQjdYU21QMkxmZUVkYlowYlpNSW9OSlUtTzBZMm1lNUFXNHlWNEloRUI4WFROTGhWTUd4Z3VlUXJrN2dCRjVLSX53ZUF2WVA2NTh4TzhuamhvaFFUNmhNZmhvR0NVUU1CZkdXUzJCfnlzeDQwMUhtSjFxNXY2d0s2cHhkUkItRVd6bzR0YUN0Qkd3RWVyaHgyU3hmRi1IfmJ1QjlNZUk4VzlUR0lZZ0diTUFRRXlNQlRYbmdDUnZuM213N2taN2dsUWJYZTkxU045SDlQY1R0S1hwLX5WbTliTlVtVjY1MVlrUnNhUG1CSGpVaDVtS3czalA0UDVxdE42c2RlVXZwcFhGdUlzLVBLd0RBOVltbTlyZjdxfkNjUDNyZXJvQkFMZkdZZHI0WVp2bENkZlpmdnlZfmpFOTNJdndaZ083bkpnX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="</t>
+  </si>
+  <si>
+    <t>description : {</t>
+  </si>
+  <si>
+    <t>S:"パンフレット"</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8yLzIuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1jSGhZQjlXS0N2clJndldGVW9JTUVrNndQYkhzeXA5NTg3LUFVeUhRTkdWd1hXSS1nV2F4QktEcThmYVF5NE1xWVhxSUNsd2V6TFhROWtmRWI2c29ZZXpDLVI0T0N6VGRIeUJmUmpIaFVOTm96enc0VjhuaWhsZ1BDZHkzQWQ3UHZ6SVJVZkZNQUdOZ2lXWnhydnp2WDRzeFhQQVVicVVESHpTSHY5N3F3Uy15QzRQN2tpUzJucXREOFdaQmFSeFBjcGxmRHdDSU90Vlp4c0MtdUh1aVQySnEyR1BmVG9Mc0JVSjVpMkVoUGs3QWdxbjNpS2ZncVhRLU90QnpTZn5YRkVhSn5Ca0V3RVB6QjhnUEJxUkt2M051YjhQcGRPYTl6MkV6bHdic1RzdXpnVXhSOUJObWZHajBDMTBmN356YXFyMVdFcVVtNFBlcmt3ZlVlTVJtM3dfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="</t>
+  </si>
+  <si>
+    <t>,"video":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8yLzIubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1NNEs4MVlFZEVYaU9sMm5IWX5zclpEa1htcE1kZWExSXNzZy1EWXVINjU3WFNjblVxMlBwYllWNHlDVlMzRzBPeDhTR04zNFBUSlF1YlB2cEVCcXZFTWZ3eX5VRTRyNnNWMzZsZzd1azJ3c3p2WC1Zdzl1dDZ1dlF5QnJSTjdTY2VMSzBob1hOVm1aaVp3SnlCU0Y5eDYzSXZ1UFNsbnVTSjdIdmN1dEFxdExhaC1RYTlDSFp1RFg1V1FhcWZua2VWVVp1T2llRVYweWZ+UjZJSXZxcjJwelVGc2VEOVBoeWJPNllpb20tYmRpTGl6VHRzaEJERG9RM252YVFXNH44Q0ZPQnNhdzdyQ1VsR29JNTVYWWQ4SVlOWH5BVU5CSnItdzRPUTFoblRLQUhTTUZ3c2NGbzM0dGZHNGotVUo1Y2dNbkVoTmtla0l2blFiajFTbW5VZVFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"3":</t>
+  </si>
+  <si>
+    <t>M:</t>
+  </si>
+  <si>
+    <t>anchor_image:</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8zLzMuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9QXVpUlBIWFZDQklIdkFiaVFJak1MMnE2clQ5bE9Qb0JuVXVrfndRMWxlbmw4eWtXMUxvc1FwTDJ0OW5zU34xeGp0VHh1aTJ5QUpJSmxHN1pNa3ZSc2E4T2gxMWtpfmo1bG1NMk1MRVdjSXVzZUgtc0JpaHJpV2pqbkh0cEpNSVluTERYaEtqdjcyNDVlRnd2bWlublNDR3V6c3FBWTJ0WGlNTlFwVFRwSHV6UzBJRWFzSUI4Ty1VcExnVE5GZHJndlg2OW1XTEZVUDhtWk96WE84RkRTN3RnWEZIcklIdUc3fn5EWn5OQUdFSWJJZ1NMMjVHSVExWVZHV0ZucG53RG9BVHhxNy1QVVB6ZEpxUDhZS3Q5bjFCRnByM1pDNDVEa1RHbHRPY0R1dkxGWWdoTklvTHNiYzRoR1RSNkNXcWZyaEpQSDVSWFYyZ1hhZ1ZvMS1SbmRRX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>,"description":</t>
+  </si>
+  <si>
+    <t>S:"関誕生日"}</t>
+  </si>
+  <si>
+    <t>,"image":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8zLzMuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1PfmlQY1pkcG5OVTdXbE4xalpmb2N4OUJJYkhJcVZFeGpsU24tU0dPZml6d1Q4cHhBR3czWGg0M1M0UGZXZ3pnUDFVfld1WUd1M1JnMTVVWVhuVHFrd3BZZWhsbkdWRGQ3blRFU0FlTC1VQ2YxemJER1Y4NzZFQjZiUE50TjRtZkwwSVkyeHh1LTJGejd6V2xqbzhiMXl2V1YwMmhjdlVhVlhpcHFTY1FaZm9DMmhycnIxRUJvMjVZWTBDb1BNWFhSfmNDVU1VfkdnZU5IZFl+fjZCT2V0ZVpVeW5yV1QwVTBsQVRofkhuWDJDV3Zpb1AtakRFWVpiVEhGakdCUVl2TENWdVpvRmxDczJuaDd2LXpRcWExM2hQUk1HRkx4Z2RmbmdGTktNdVlSS1NVak9selRzNkpBQVhMUH5tSElGS0FQVkxnZmJWWGdTcGZxMmNyZUQ5MXdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"rating":</t>
+  </si>
+  <si>
+    <t>S:"5"}</t>
+  </si>
+  <si>
+    <t>,"status":</t>
+  </si>
+  <si>
+    <t>S:"SUCCEED"}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC8zLzMubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1vdTZnS2hHaHFpTHhlN0d2bS1iOTdjUnpvbWtpcVBhZkUta1RGbUdpWX55c2ZFblMwRjBZNmhkWjRxMTZwc1JTLXUzcUs5eklUTEllTlVGTHdoNmVqTG96TDZrT3dBdHh3VlpEMkZHYThYWGJMYVZ4RzJjcGljU2dSUFNCdHN3YmNSMG1JWmxyWmtMSWtvRzZkbFgzT1BMVXRVLTd3VUpuYkg0UTk0RXFGdEpnTnpPMEZ2dW9iM01nLW5OZ0FnMVpNdXRsQVlFWEZyVkdZYU9MQlBzUmQwZH5ITDlBVUtaOG8wVURhRkJFYmJ2STQzSzlWUXBzflpwREw5V21mSDNzVzZIcGFFYzllYldHSnZoeFVlem5wRmVyZVNkOXBtMjRPR0YtQVdWalI4MXMzNnQydU5EbVRMaHdtNjZPS0hvZGRRNTJMQTlLTUV2SkoydHFPUklRSFFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"4":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC80LzQuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9SHdwWHkya3p1Z3pSVkFxa1Znfk1LdG80N0xCanBRQUtqUkRzNWtnSTAtbDhEY292R3VwQURpOGNxeENjYjVPdkJBcXdDYmp2Nk5+cDYtS29qQkVhUUgzQklCQjBEYnd6RkpZenJKRkhZVFpkVEdSdzViUkF6dTAtOHRUaFp0b1RZQldnLWZiQVhMWmNZbnBxMDdQdVN1bGxiVXB4a3BOMlhIckFyY01QU1BsT2lSOH5OakhRSjU3YUwyOTJENTY3bk9DRUNYcmtmTzJyUm0xVE9mZ2lUMEsyVk1tb0NVNHNUMTVIQWZrMkczTUxuQkxiV2QwbTRDeGRDN3VsVFpRMnBpOUc0QlU2TnQyM21pSWFCVDN3UjJiRmJWaGU3Y2hvZGEtWG9hRlVqZTBtZzVnczFjam5wdUdhMnV2bzNaRFlBVG1VR1dPWUhJbUItOTA1aHFkR1lnX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"佐藤先輩"}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC80LzQuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1sZGRZMWNOcGxDMW9qQ3dQZThyMW9TWGpUSEZ3RGhHUGlFd0pQRjNiS3REQ1h2YWM2aEU2MnpOMmVsaENnWEN3OU1FMGJPczRWczZ1dklRbjZwUzlaQWhUZlktM3o4c1NwcXp6MTJRSmI1TW16bFZ4ZEhhLUZaVm1icWVrd1hMRnIwQ2ZwVUdSeXRTbWxGSzItSGhBNnhZT35LM2x2fmRBM2ZieWxtUzQ1VmJTOWNaMjNmRG5zZ1lObi1TVmhlVE1pU1dQYklsMDBoelQ4TjN4d3EwTk1IR0daSkYxRW01bG9SWVBTb3VmZWJkelBiWjFPUFVwcmx1V2Q0NlFpMks5akRMdVl1eURjczJnTXdiUnBnVG1Gd24xM3RLY3dWaEUzRXZuTFp3YWVQZlR4QTdRQVljVTdyd1ZGZ1l1YWpaWDh6TkZmekk1SmRvSGNFUk1HWlhCZkFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC80LzQubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1jd0pjdHRJOUEwTWduMzVTYWx5RX5iY0hDQ09nQlBQcWhyVVBMQ3k1UmdWQkJGMU41NkdRcW5wUjVuVUV0LVRjZTc0QThDdmlaY2NjWUtINDBjRGc3cXZ6Z1lhY2FIWjBZU05Ubjh0RzBSVVk3LXBTenpIbWk4aXFMLUw1V2h3SmY1Vk12TFdvanNMMjVrR3ZveVYybFZ0c0NDcGxnNm1EMFpqQ1NlZi1ZajdkUk4zY25IV2hOT2ZSZlFvQVBuOEdJaGZYalR3aXpnQU5ubnpSflRldEZzbGd1eHlYfnpmb05kRlVUODc3WGd+ZW5ZcVZzVXRxN1lnMEJufllFbmE1cGZYdks2NjhqcEVpdUMyRjNTQWRrUHU1amtQdGJMVy1sbkdxWTFTc2hvOGVTMUw2ei1nNmRhRTUyeFNxQm9KOHdvdVc5eUN6UGowU1doWnVQTEpyRkFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"5":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC81LzUuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9VXNZTk5UdXA4ZzZyfjljcWtJenFLTHppTnd+OExIS3U2bnpUc1YwRDZoaTJJandHbkhXa3FqbUhrRFFrOXU0U0VORmVCSUtSSmJOYnE3SDR1VFNhS0dpaVMtem9jdWdvWXpQYkpFcTAzZDN+UUZNOGhnbDFTcnJJcFNKLUxqVUxKLXQybE5YfkJMd29NMmZvNjhaUlNYcGt4U1FQeGxiSU9MRkpmbkRMWDUtN1RIfnpuSDZKeXc1OHNPVThYSjNmd29RfjJqRVAtaGFKdjRhN1dJM3R4VzNqbjdMaG1qR1JRN0RBTTNWbDd1OWxpUklRMGVhd2JleFlpTW5EVGNQVTdva2liSTBmR2IwRGZIRENKMll4emN5S0wxY3pRWTNZYndCN2ZQdVZ2T2t1Y1N3aHpvMVpadkUwMUFUY21CV1p3emp+eXhBbmx2b2dCWHJncVhzd29RX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"サンプルID"}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC81LzUuSlBHP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1NS0pid0xzUk95R1QzZmtQMHZ3NXNMSXRlTUdLd3BBVTdjSzkwN25UcHJ2Qzlnc2V4bWphRlZ4UVZ1dHN6akpqVGN2NEplQjN6M3E4TjR3QlRZMTUxVFItWVZUfmUtcHNzN3dRenkwSnJFSEM5NHRKZGI1NnNIZ2p3TTJjYWM3REtlVjRjd1dFelZ+R01FME9EWnZuV0dZZ1Fob35senVwaDJUTFpkdmxYSXRicWdzdTFKTVdiOUt+TkhvUXZzRFIwLVczd2RWeTRkUWtoZi1OY2ZRY1VIV2NSdnRIZUpnVk5iSjIzdFFWMXBYZE1qVXA0MmlTcmE0S1E1VXVWNXpNY1VpSXE3SWZnNWhvV2VmS1ExNkcyb0VsOU1yOHpFYm5hQUhLVG5xOFh6eTNpQVNScm43dlNTMll1Q3NxZGVlMWtjYU9qY0M1VTNNc1hXNHVLYzE5YXdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>S:"4"}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC81LzUubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1YTVlzUFJIbzV2bXYzWkFoNmxBQXZ2cFBIaUhrdFZ1UjAzYUZZTTV3VXpSYWZNWTV6OGYyOTdvanp+ZUVjT1BaUlF+UXQzcFhpVEdOQXgzLXVENFVjeFJiZm9mTTBvYmluRk5GcX5ETHRkaHgtS0ViZFFUcGVOQVBqcU9pcXUtOVg2TkhPMEpTa2JpakV5d0poZkRGTEZMYXM1eDlENXZQSElJNi03SWYtNXhORGl1MjBNTVZGUGlCcWt5V3VBd1VXek01LWJESnU3Ukx6UVRPaWVONWk1WGZBQndYN3pYUlJhUXNPRzJ2NGhRR35sR1pDTHpacGM0Z3UxREczNE5uTjNSWnpCRXJOajdQOGVCQWVWZ1ZZQXl4dEZVemR0azRUflhLTWllZ1gyVGk5Z2NBWkQ2RjBVa2E1eHYtZlBZeHhFVkVQVVI1fm80Qi0yZ3E3UEE1Z3dfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"6":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC82LzYuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9Qm9sRS1NdUlCRktLZDBycGotNkk0SlQtSTROQ3F3ZGtjZWNPMXJKbU9wRnY3OVJTTlpUeEhYOWNVODVTVjBxM0VUZ0hhZXBqbjlYa2ltZlFsNTluVjN5NU8wMkRsTUUtZWNodjhKS05wMGFLYWh3VVJkZUxzcndNYTJYflhEfjE0TmZNb3NOaXBobE41UzUwT09VNm5PTXY2YXRycjUxbk5tejd2c0JHSWVMY0FIU35qcVFjb25qSjJQdmh1SmhPVWpPNjV1TEpDbkZXN1gxRFRkN1ZCYllMNG1rRmg2T3d4Nnh+ZVZrRHY5d0NYODRjUzE3MGZTbTZyZUdCNmtEdndFenRYZXB2UVA5blpQcU5la1hsaEZuMVQwb0s3OGEydHFra3NwaFY0cWd0NzNZOVllZHhxUVA2MVYycnN6VklUaU1rQnF+TWtqUFQwREZKTWM2V21nX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC82LzYuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1DcW9MY0kyUlBEZ3B6ZjM1dVRqUFY1Y2NESkNsdUlFMy0wdkVJeUZXRTNjTFR2bE50WEN5VjdsUlZOfmo2RTJCS3VxYUZ5NlBvUTdyZmdlWFpGdmZBc1NLUjBiQmlUeGtEWWR3MGREVzRvQXdSb1F0QWJJWXRqWW1aS3ZFMk5ZV0FtVFFZUm96WFBHQUJ1MS1sUmxWLVkwLX51cTNIYVlrbEJMUUVGMWhmfmoteDdWQ1lKbXlQellpSmtraldlRFZlOWs4NWlPaVk2TTAzVGJBeTh+U1pZZncxbkZzLWViMzRxYVpqREJLeHg4WExaRmlSM0lmOER+R2dHTlNsUTVWb2lwUUJFUlNCVmJMc0EtazBveDA4ZnRObUpSRUhqcE5Wcn5yRERVcUJaN2d+eHVNakVGTVJZajY5MGx0UE9FSU9JUUNyYnJtYWJrV3pzMW0zTHNKOXdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC82LzYubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1ESE5nUXo5VzVXNFJLTFlzU3U1bjlFSFdsWmlVc2RMZm5Ybm5Jc3pQTTdILVJMdFdoOEhSbG8zSkNPd35yUjRucENTWFNPQXRYb25uRUdOWnp1dmpDWW1+Qm16VXdaaktpQ35CY25BZVgxMzh6aWt3bHZ3b2xJLU5CTVFad1dSVXlVbWkwY3ZhTVA4S2FwV1puQUFqSEVxTElwWnBYRzZqQmxLT1k0cGsxRnhOYjVZLWtTVHNmdmlvT2VGTmppZmJPZXlSUEZxclVHbUh3RHlJOTl6OHVxNkxwZUlHcG1VWHN1SExkbkhidmNKQmlzcWt1enltTmp0eTYxWXhjS3Q3Sn5wUFU1TVBUSnFUTmxhYnpoQjJ2LWRYNTZZekRpanEzeUM5eXlsTnZyenI0Qk5RVktVQnJuNzJvRFhqTXRPYmdPYWtBTW5Dd0pZM3JNRVZzeGp2b0FfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"7":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC83LzcuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9RzI4UzF+T1FqY2N5dVNmNFdrSH5EUVJiNmp1N2RHdWxQRzBhbUxBTlh1S1VmM3lOMkgyN00zaGxETVVvZTJnQ2JqRUVuTHNnRXJZQzNmWEItRlh1Y0NzeWJSVDVNR0RPbWhmUVhPTkI0ZnBFTDloNDB6Y3E3QTBRb0JxZzlacUNKblM1LW13emhSR1VOa2xZdlZLVXFGU3k3RFNLS0JQVWtKRzJPbUNzaUZONjF3U3E3R3ZqTFNnLXd+YWJsczBsOEZzcjJmb1B6Qkg5UDlKOUN2a0FWcWdnYXh6VTZvTGFkVUVkMHZGLTBiTHQ5TzdXaEFlRE5Sem41dVptMHpXakMxbEFQMU9ZbFYxSnlIWjc3MFhscllCdUg1Q3dEMHQzTHoxRGFvZFZtUG9zWnZqWDA5ZGxjUlJxeC0wTGJ1QWFtQk1CdXlpVS1CdWhCVE0wdUd1dFF3X18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC83LzcuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1oZDhtWUd4VkhReWNscFZNTmRBT2oxUnJSQTFLWGV3WEdqWFRHNHJnYmNhdmxZZVExU0VNVjlnT0c0b2xVV0x4cE5FVVpkY3ZrY1ZmSjFkcHdRYVBKd3pILXZLcGd1aS1VWG5QdVljflJkdnpEcjlSLUVkQkVUVHRraGR+R212ZUtvTExpTFBqTjV4VXFKT21RYnZHfi1uUTZHRk0wMUlHTXJwYktEWjB2bUROQks3ZUMwN0pLSXpGRzZOOVNILTBLSXJVc2hDcGRRTjdXdHhaNDdqUTVnOUduVTd6TXdsNWlnTVFNUVNKMEZxUDcwfllNNTBoWlJEWnVXTDR4Snl2a1NlTFhPMTA3S1Ztd1dRUmh5Zmx4ZWRRb1pRaTZTbWgwY2R2SVhDeE9Sdi1ZQVBRNE40Y2ozNmpsdWZqcnV5RVdwOWNFZHlpdFhHNVpvS2VoWFR+TFFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="</t>
+  </si>
+  <si>
+    <t>rating:</t>
+  </si>
+  <si>
+    <t>video:</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC83LzcubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1HNmE4NFY4TTYyWWJRTmtUZDZrT0hOeEphSWZieUZxdzVnaWlCLTIyMHFZZHNXYlZKU2lrbHBmMzMzWEV5ZVg0YXpFLUNsRVNnMkRubVRkbWtQZlIwcWw4WWRzekdnY3FWMnZtNVo1dGFldmhWUzRFSEFxb3dlMnczWnQtNWFLM2VvZjJpRk5jM1BtUXBlNHhvcTRmOGlPSm5qaWVVaDJZLUp1dUFQMX5NTVJyTzdLZFVzYjNoVGU2YzZhQTUxWmttelVaaDRIcHdZcmQ0TmFBUHBkMUN5Wm82c28tWnJ4VTVIM1lOQX5iVFhOckQ1QVExNGV5WXJKSjh0cUEtbjlKYVVSeTNYQmNYcmJjYWpjeEVCVzJQUURyT3RuUUhVY0p0cTNHSzYxTUtNVn5XcEI1bWxJR2FXaFkxNGVJeWVCbDNrd2V4MmNKdn44dnlQbmR0TEhRV1FfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"8":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC84LzguYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9aFA3SFp1d1VWR3NiLWtUUm1qNH4tby1BbkNjODNXR0xKR2IzdXg1RkRjTGdrY2hzSUpUV0F+Zk9nS1ctWHN6WXZ+TXp3MFJXSVdsVU1vWkJSRU81YnF6UnprN2FzcU92VnJRWEsxbW9tNjNSa3dzQ2Vua2ZpUFVtQXhTSjcycUFsdHdscWFNOVFFWjJVWnJZZkpnMHZOSFo2ZXQ4RW1FYkxWOERXMTBiMVpIMHpsMnZXSW1TOFg3eDdxNHl1WmhXeXhCaXZJeGxENGxkUVI0NHJadnFqTnF3R2NQdWJZbzVOTzllSGFhLXdvMzlUVUd4TFRZMERBcElkbFdvczVLMHVYUWY2dS1VOXdOUmxyWUlhMHgxbkx2LVVVcTMwRkQ3STRUVURNQnhLVEJkdjZpdWZ6bTUyUlZQOFk5ZHFqaWxMMn5ZNUFCQ004QTBQeFpVU1VacUpnX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC84LzguanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1LMFZuemJuRy0zNTJqMEkwdGVRbXltSTVNZXp5YkhILVdKNmVqOFd2MVpGaC1mMFhMaFBjdzhibTJhSEs2bVRjfjRMSDZoU1cyRS0tN3QyTzlDR0ZzUzFiSlkzNzZqSUZLfnQxaWhNOTdlYTFOOUE2WTd2aHdMV2R2TDBMNkdFc1ZSMnB+Z3BXeTNjZGFuS3FwOXlsN1dvZExGQTBtUFhYdVpEVk1kSW43LUN5Zmg2a3I1SnpybFVnSUpzVnViOFJ5VHFhNWk4VDJRQlg3QWl5OWdXeFpPQm5ZRkZISzROTk5FRVFHYzJqYjRmZlJUbGRjNzBReVE2NjdyMn5VUHhGfldmOGtablZpQUtWRWRyWnd6dHZUZzJBSVZTb09JRDU5RVdZeGJNQ0hNaXF2b21jWnBrNU9RZFZCRlc1c25iVWF+dmlkdUdES01OM1VSVUk1SUNTU2dfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC84LzgubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1HbGh0Y0o0Y0NTc05STy0weVY4WFZNR1lGbG9GTm40UXFVNDdMZmtEYUR4aUNSNVJMfmdHeWRLVFBqfktHSnVZV25xcy16c2JkRFlOcmlJR3pYRWdKSE4zZ0t5dE9+MFAza055MzVTTU1SRWZORW9rT0pWSFh2MGYzSWQ0Skp0MDZhNW53Ym90NWFRMU1uRH5GeUZnanJrdkE3NjlRbFR1d3VKdEJMZU5ZcjRqTTNUelljY3AtLVhRYlBYYUFZdzJpdHBqVWlLMFBmV2NTbmE0VTNnYUhVNG1TZXZlWVUzZzNhY2lMdXVRQ1FyWFhTZGwzbXA4dFVDTmtsZFRlWUhHRm5aUmdsdXVXQUt1cGpENlF0Ri1FeVBjdG1FYUYxa3U4OTRoTVRLWH5RaHFnaE90anhxSFVyM1pBUjZVcGNaSk9zekF5MEc0LTVwRWhJcnpLfjZENHdfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>,"9":</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC85LzkuYW5jaG9yLnBuZz9FeHBpcmVzPTI1MzQwMjE4MjAwMCZTaWduYXR1cmU9bzF4azNIRzZ3dEo3OVFVVEtrNElqNGVMeDUxMTEyZX40QVhrcDRqNDNiTTV2YjZvMmk1YmJ6aWp5aUJCcHRBV2NGclRHNWJHcVIwUUlQOWNYVUZiMi04T1dsM1lUVlZvdVlJOUtTZnAxWmMzWWN6blZPZ2JySS1PdDRHOGQ3Nmtqd290d0JDQUlyeTVOSXJqcll0bDRSTVJpa2VkSjNwNzhHVS1xNlBnQWZJYk5CWHdtU0RoRVpjS2FZcnNaY29DeUtrUkVaRDFtYndJRH5paUxMZXBBYkhTdVRESjRWb09QUVBRR1Jqa2U2SnNpQ3VIRGlpSVFWUm5jQVpiV0lsU35nWGJwdE4yZVUxaEtBVjllSTZBalBHbGFiaVlKcFlXMDJveWVqWEw1ODVDZGdoaFhYY3VNZHpuWXM3MGdua0gzdjBtR3lyR0trVzQtQzAycjFtb01RX18mS2V5LVBhaXItSWQ9QVBLQUpISUIyUlFVMk0yVVVZVVE="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC85LzkuanBnP0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1ra083ZXRhOVpTaGxEbTVsaWhZSEpKaVJFZ1I0QjRhWDByTDlzSm0yTG5UbE5SeEtRYXRESXlWNHYzOUtvQkFLRWRKNkVqWUhLRU0wYlF5aHY0bXpkeHlqfmgxUExzWFZtSUlXUUlxN21WUXQ4NGotOEd3QzdTTXh0UnUzTmpaY2JrVlRYNUpyR2pPcnhDTVMwckhLZ21CZ2JtbjM3QVR2VmU0fldaNzFmZHg3ejloRjBkY0Y2QXJLaUpLY01pTTUyOTlCUHNYQmpRVmlUNlZ+V2JqTXMxVDVwb2pGOXEyfjZHQ25ERUhmb203VDcxLXVuZ2xCQ3FjOHdhZ3FqdDFyam9YdGZvMUwzekt6a3B0b3lrd0l6N3BMelNaalBybzdlNUp+NFg2TFlTREhNUkV2WGNvSWZ6d2JtYVd4cDd2fmJSUzZXVU5lUm5rakF6cTQ5VDRYdVFfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
+  <si>
+    <t>S:"aHR0cHM6Ly9kM2RiMnVhOG5qNWJyYy5jbG91ZGZyb250Lm5ldC8wMDEwMDAxNC85LzkubXA0P0V4cGlyZXM9MjUzNDAyMTgyMDAwJlNpZ25hdHVyZT1RdzQzRzJyUEdKUGRzRS1JaXBmRUZURDRTdXh0Rmk5enlyT35+STFWUElKSUpjY1RKeGhQTTQ3dmsyOWc3WU9QQVJxc2YxcVpxaFl6bH5WSy1DS2hCY1lQTWhOd2Rrdm1MRE5MczN+ZlJ1YUFnLUZqMXd5LVlxS21XNzdydy1ZflhaNFR+cUI1eHRvOUd1MlB3VkQ1Uzg5ZXk2LWtvcDlsT0drRzV0VnFiOWpiUjFaYUJqN3FNOWhTTWs2SkFZQldyOGIxSFdDMmp6SkxPNnB+MUtjLUlHdWxTcXdnWVlqVW9oMjFLeFpCSjUxMmFNa3Q4alc4clItYlBkN1hSaHJudUJRQmhsdU5kMVlmOGgtaWlzUzN4R1J6Ulh1flVacjRxT3pXajNQQlVNSzhQd3pkeDlFWXZjeldZRnhQVUtjUHNXM2ZaanBsS1V0UzJOcW45NGEwc2dfXyZLZXktUGFpci1JZD1BUEtBSkhJQjJSUVUyTTJVVVlVUQ=="}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -359,7 +663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -563,18 +873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -590,6 +888,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -698,6 +1009,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1045,29 +1364,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="77.6640625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1080,11 +1399,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1094,9 +1413,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
@@ -1113,12 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:T257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J62" workbookViewId="0">
+      <selection activeCell="R74" sqref="R74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
@@ -1126,7 +1447,7 @@
     <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1465,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1160,21 +1481,21 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:15" ht="53" customHeight="1">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="7" spans="2:15">
+    <row r="5" spans="2:15" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1527,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1220,7 +1541,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
       <c r="D12" s="11" t="s">
         <v>29</v>
@@ -1242,7 +1563,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
         <v>20</v>
@@ -1264,7 +1585,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" s="14"/>
       <c r="D14" s="9" t="s">
         <v>27</v>
@@ -1284,7 +1605,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1298,7 +1619,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" s="14"/>
       <c r="D16" s="11" t="s">
         <v>31</v>
@@ -1320,7 +1641,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
         <v>21</v>
@@ -1340,7 +1661,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="16" t="s">
         <v>22</v>
@@ -1358,7 +1679,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
       <c r="D19" s="16" t="s">
         <v>23</v>
@@ -1376,7 +1697,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
       <c r="D20" s="9" t="s">
         <v>24</v>
@@ -1394,7 +1715,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1731,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1424,7 +1745,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
       <c r="D24" s="11" t="s">
         <v>29</v>
@@ -1446,7 +1767,7 @@
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
         <v>25</v>
@@ -1468,7 +1789,7 @@
       </c>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -1482,7 +1803,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="14"/>
       <c r="D27" s="11" t="s">
         <v>31</v>
@@ -1504,7 +1825,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
         <v>10</v>
@@ -1520,7 +1841,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -1533,8 +1854,11 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="3:14">
+      <c r="P29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -1547,237 +1871,2162 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="3:14">
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="14"/>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="P31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="P32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="P34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="P35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="P38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
+      <c r="D39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="13" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="P39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="D35" s="11" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="P41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="D36" s="18">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="P43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D44" s="23">
         <v>200</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="3:14">
-      <c r="D37" s="20">
+      <c r="P44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D45" s="25">
         <v>204</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="D38" s="20">
+      <c r="P45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="25">
         <v>304</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="3:14">
-      <c r="D39" s="20" t="s">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" t="s">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="3:14">
-      <c r="D40" s="19" t="s">
+      <c r="P47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="9" t="s">
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="C43" s="13" t="s">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="P48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="45" spans="3:14">
-      <c r="D45" s="11" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="P51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="11" t="s">
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="3:14">
-      <c r="G46" s="10"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="3:14">
-      <c r="G47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="3:14">
-      <c r="G48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="7:12">
-      <c r="G49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="7:12">
-      <c r="G50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="7:12">
-      <c r="G51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="7:12">
-      <c r="G52" s="10"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="7:12">
-      <c r="G53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="7:12">
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="7:12">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="7:12">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="7:12">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="7:12">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="7:12">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="7:12">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="7:12">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="7:12">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="7:12">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="7:12">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G64" s="10"/>
       <c r="L64" s="10"/>
+      <c r="P64" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+    </row>
+    <row r="65" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+    </row>
+    <row r="66" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+    </row>
+    <row r="67" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+    </row>
+    <row r="68" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="T68" s="26"/>
+    </row>
+    <row r="69" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+    </row>
+    <row r="70" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+    </row>
+    <row r="71" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T71" s="26"/>
+    </row>
+    <row r="72" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+    </row>
+    <row r="73" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+    </row>
+    <row r="74" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="T74" s="26"/>
+    </row>
+    <row r="75" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T75" s="26"/>
+    </row>
+    <row r="76" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T76" s="26"/>
+    </row>
+    <row r="77" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T78" s="26"/>
+    </row>
+    <row r="79" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T79" s="26"/>
+    </row>
+    <row r="80" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T81" s="26"/>
+    </row>
+    <row r="82" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="T82" s="26"/>
+    </row>
+    <row r="83" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T84" s="26"/>
+    </row>
+    <row r="85" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+    </row>
+    <row r="86" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+    </row>
+    <row r="87" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="26"/>
+    </row>
+    <row r="88" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+    </row>
+    <row r="89" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T89" s="26"/>
+    </row>
+    <row r="90" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T91" s="26"/>
+    </row>
+    <row r="92" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T92" s="26"/>
+    </row>
+    <row r="93" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T94" s="26"/>
+    </row>
+    <row r="95" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="T95" s="26"/>
+    </row>
+    <row r="96" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T97" s="26"/>
+    </row>
+    <row r="98" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T98" s="26"/>
+    </row>
+    <row r="99" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T100" s="26"/>
+    </row>
+    <row r="101" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T101" s="26"/>
+    </row>
+    <row r="102" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T103" s="26"/>
+    </row>
+    <row r="104" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P104" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+    </row>
+    <row r="105" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P105" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+    </row>
+    <row r="106" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P106" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+    </row>
+    <row r="107" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P107" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+    </row>
+    <row r="108" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P108" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+    </row>
+    <row r="109" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P109" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+    </row>
+    <row r="110" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P110" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+      <c r="T110" s="26"/>
+    </row>
+    <row r="111" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26"/>
+      <c r="S111" s="26"/>
+      <c r="T111" s="26"/>
+    </row>
+    <row r="112" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P112" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="26"/>
+      <c r="S112" s="26"/>
+      <c r="T112" s="26"/>
+    </row>
+    <row r="113" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P113" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+      <c r="S113" s="26"/>
+      <c r="T113" s="26"/>
+    </row>
+    <row r="114" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P114" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+      <c r="S114" s="26"/>
+      <c r="T114" s="26"/>
+    </row>
+    <row r="115" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P115" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="26"/>
+      <c r="T115" s="26"/>
+    </row>
+    <row r="116" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P116" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26"/>
+      <c r="T116" s="26"/>
+    </row>
+    <row r="117" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P117" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26"/>
+      <c r="T117" s="26"/>
+    </row>
+    <row r="118" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P118" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
+      <c r="T118" s="26"/>
+    </row>
+    <row r="119" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P119" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q119" s="26"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
+      <c r="T119" s="26"/>
+    </row>
+    <row r="120" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P120" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
+      <c r="T120" s="26"/>
+    </row>
+    <row r="121" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P121" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q121" s="26"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="26"/>
+      <c r="T121" s="26"/>
+    </row>
+    <row r="122" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P122" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q122" s="26"/>
+      <c r="R122" s="26"/>
+      <c r="S122" s="26"/>
+      <c r="T122" s="26"/>
+    </row>
+    <row r="123" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P123" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
+      <c r="T123" s="26"/>
+    </row>
+    <row r="124" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P124" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q124" s="26"/>
+      <c r="R124" s="26"/>
+      <c r="S124" s="26"/>
+      <c r="T124" s="26"/>
+    </row>
+    <row r="125" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P125" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q125" s="26"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
+      <c r="T125" s="26"/>
+    </row>
+    <row r="126" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P126" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+      <c r="T126" s="26"/>
+    </row>
+    <row r="127" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P127" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q127" s="26"/>
+      <c r="R127" s="26"/>
+      <c r="S127" s="26"/>
+      <c r="T127" s="26"/>
+    </row>
+    <row r="128" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P128" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="26"/>
+      <c r="S128" s="26"/>
+      <c r="T128" s="26"/>
+    </row>
+    <row r="129" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P129" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q129" s="26"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="26"/>
+      <c r="T129" s="26"/>
+    </row>
+    <row r="130" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P130" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q130" s="26"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="26"/>
+      <c r="T130" s="26"/>
+    </row>
+    <row r="131" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P131" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q131" s="26"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+      <c r="T131" s="26"/>
+    </row>
+    <row r="132" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P132" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q132" s="26"/>
+      <c r="R132" s="26"/>
+      <c r="S132" s="26"/>
+      <c r="T132" s="26"/>
+    </row>
+    <row r="133" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P133" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26"/>
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+    </row>
+    <row r="134" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P134" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="26"/>
+      <c r="T134" s="26"/>
+    </row>
+    <row r="135" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P135" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q135" s="26"/>
+      <c r="R135" s="26"/>
+      <c r="S135" s="26"/>
+      <c r="T135" s="26"/>
+    </row>
+    <row r="136" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P136" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q136" s="26"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="26"/>
+      <c r="T136" s="26"/>
+    </row>
+    <row r="137" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P137" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q137" s="26"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
+      <c r="T137" s="26"/>
+    </row>
+    <row r="138" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P138" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q138" s="26"/>
+      <c r="R138" s="26"/>
+      <c r="S138" s="26"/>
+      <c r="T138" s="26"/>
+    </row>
+    <row r="139" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P139" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q139" s="26"/>
+      <c r="R139" s="26"/>
+      <c r="S139" s="26"/>
+      <c r="T139" s="26"/>
+    </row>
+    <row r="140" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P140" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
+      <c r="S140" s="26"/>
+      <c r="T140" s="26"/>
+    </row>
+    <row r="141" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P141" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q141" s="26"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="26"/>
+    </row>
+    <row r="142" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P142" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q142" s="26"/>
+      <c r="R142" s="26"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="26"/>
+    </row>
+    <row r="143" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P143" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q143" s="26"/>
+      <c r="R143" s="26"/>
+      <c r="S143" s="26"/>
+      <c r="T143" s="26"/>
+    </row>
+    <row r="144" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P144" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
+      <c r="T144" s="26"/>
+    </row>
+    <row r="145" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P145" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
+      <c r="T145" s="26"/>
+    </row>
+    <row r="146" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P146" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q146" s="26"/>
+      <c r="R146" s="26"/>
+      <c r="S146" s="26"/>
+      <c r="T146" s="26"/>
+    </row>
+    <row r="147" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P147" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q147" s="26"/>
+      <c r="R147" s="26"/>
+      <c r="S147" s="26"/>
+      <c r="T147" s="26"/>
+    </row>
+    <row r="148" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P148" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q148" s="26"/>
+      <c r="R148" s="26"/>
+      <c r="S148" s="26"/>
+      <c r="T148" s="26"/>
+    </row>
+    <row r="149" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P149" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q149" s="26"/>
+      <c r="R149" s="26"/>
+      <c r="S149" s="26"/>
+      <c r="T149" s="26"/>
+    </row>
+    <row r="150" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P150" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q150" s="26"/>
+      <c r="R150" s="26"/>
+      <c r="S150" s="26"/>
+      <c r="T150" s="26"/>
+    </row>
+    <row r="151" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P151" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="26"/>
+      <c r="T151" s="26"/>
+    </row>
+    <row r="152" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P152" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q152" s="26"/>
+      <c r="R152" s="26"/>
+      <c r="S152" s="26"/>
+      <c r="T152" s="26"/>
+    </row>
+    <row r="153" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P153" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q153" s="26"/>
+      <c r="R153" s="26"/>
+      <c r="S153" s="26"/>
+      <c r="T153" s="26"/>
+    </row>
+    <row r="154" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P154" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q154" s="26"/>
+      <c r="R154" s="26"/>
+      <c r="S154" s="26"/>
+      <c r="T154" s="26"/>
+    </row>
+    <row r="155" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P155" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q155" s="26"/>
+      <c r="R155" s="26"/>
+      <c r="S155" s="26"/>
+      <c r="T155" s="26"/>
+    </row>
+    <row r="156" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P156" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q156" s="26"/>
+      <c r="R156" s="26"/>
+      <c r="S156" s="26"/>
+      <c r="T156" s="26"/>
+    </row>
+    <row r="157" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P157" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q157" s="26"/>
+      <c r="R157" s="26"/>
+      <c r="S157" s="26"/>
+      <c r="T157" s="26"/>
+    </row>
+    <row r="158" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P158" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26"/>
+      <c r="S158" s="26"/>
+      <c r="T158" s="26"/>
+    </row>
+    <row r="159" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P159" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q159" s="26"/>
+      <c r="R159" s="26"/>
+      <c r="S159" s="26"/>
+      <c r="T159" s="26"/>
+    </row>
+    <row r="160" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P160" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q160" s="26"/>
+      <c r="R160" s="26"/>
+      <c r="S160" s="26"/>
+      <c r="T160" s="26"/>
+    </row>
+    <row r="161" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P161" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q161" s="26"/>
+      <c r="R161" s="26"/>
+      <c r="S161" s="26"/>
+      <c r="T161" s="26"/>
+    </row>
+    <row r="162" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P162" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q162" s="26"/>
+      <c r="R162" s="26"/>
+      <c r="S162" s="26"/>
+      <c r="T162" s="26"/>
+    </row>
+    <row r="163" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P163" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q163" s="26"/>
+      <c r="R163" s="26"/>
+      <c r="S163" s="26"/>
+      <c r="T163" s="26"/>
+    </row>
+    <row r="164" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P164" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q164" s="26"/>
+      <c r="R164" s="26"/>
+      <c r="S164" s="26"/>
+      <c r="T164" s="26"/>
+    </row>
+    <row r="165" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P165" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q165" s="26"/>
+      <c r="R165" s="26"/>
+      <c r="S165" s="26"/>
+      <c r="T165" s="26"/>
+    </row>
+    <row r="166" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P166" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q166" s="26"/>
+      <c r="R166" s="26"/>
+      <c r="S166" s="26"/>
+      <c r="T166" s="26"/>
+    </row>
+    <row r="167" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P167" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q167" s="26"/>
+      <c r="R167" s="26"/>
+      <c r="S167" s="26"/>
+      <c r="T167" s="26"/>
+    </row>
+    <row r="168" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P168" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q168" s="26"/>
+      <c r="R168" s="26"/>
+      <c r="S168" s="26"/>
+      <c r="T168" s="26"/>
+    </row>
+    <row r="169" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P169" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q169" s="26"/>
+      <c r="R169" s="26"/>
+      <c r="S169" s="26"/>
+      <c r="T169" s="26"/>
+    </row>
+    <row r="170" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P170" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q170" s="26"/>
+      <c r="R170" s="26"/>
+      <c r="S170" s="26"/>
+      <c r="T170" s="26"/>
+    </row>
+    <row r="171" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P171" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q171" s="26"/>
+      <c r="R171" s="26"/>
+      <c r="S171" s="26"/>
+      <c r="T171" s="26"/>
+    </row>
+    <row r="172" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P172" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26"/>
+      <c r="S172" s="26"/>
+      <c r="T172" s="26"/>
+    </row>
+    <row r="173" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P173" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q173" s="26"/>
+      <c r="R173" s="26"/>
+      <c r="S173" s="26"/>
+      <c r="T173" s="26"/>
+    </row>
+    <row r="174" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P174" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q174" s="26"/>
+      <c r="R174" s="26"/>
+      <c r="S174" s="26"/>
+      <c r="T174" s="26"/>
+    </row>
+    <row r="175" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P175" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q175" s="26"/>
+      <c r="R175" s="26"/>
+      <c r="S175" s="26"/>
+      <c r="T175" s="26"/>
+    </row>
+    <row r="176" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P176" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q176" s="26"/>
+      <c r="R176" s="26"/>
+      <c r="S176" s="26"/>
+      <c r="T176" s="26"/>
+    </row>
+    <row r="177" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P177" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q177" s="26"/>
+      <c r="R177" s="26"/>
+      <c r="S177" s="26"/>
+      <c r="T177" s="26"/>
+    </row>
+    <row r="178" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P178" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q178" s="26"/>
+      <c r="R178" s="26"/>
+      <c r="S178" s="26"/>
+      <c r="T178" s="26"/>
+    </row>
+    <row r="179" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P179" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="26"/>
+      <c r="S179" s="26"/>
+      <c r="T179" s="26"/>
+    </row>
+    <row r="180" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P180" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q180" s="26"/>
+      <c r="R180" s="26"/>
+      <c r="S180" s="26"/>
+      <c r="T180" s="26"/>
+    </row>
+    <row r="181" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P181" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q181" s="26"/>
+      <c r="R181" s="26"/>
+      <c r="S181" s="26"/>
+      <c r="T181" s="26"/>
+    </row>
+    <row r="182" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P182" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q182" s="26"/>
+      <c r="R182" s="26"/>
+      <c r="S182" s="26"/>
+      <c r="T182" s="26"/>
+    </row>
+    <row r="183" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P183" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q183" s="26"/>
+      <c r="R183" s="26"/>
+      <c r="S183" s="26"/>
+      <c r="T183" s="26"/>
+    </row>
+    <row r="184" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P184" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q184" s="26"/>
+      <c r="R184" s="26"/>
+      <c r="S184" s="26"/>
+      <c r="T184" s="26"/>
+    </row>
+    <row r="185" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P185" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q185" s="26"/>
+      <c r="R185" s="26"/>
+      <c r="S185" s="26"/>
+      <c r="T185" s="26"/>
+    </row>
+    <row r="186" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P186" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q186" s="26"/>
+      <c r="R186" s="26"/>
+      <c r="S186" s="26"/>
+      <c r="T186" s="26"/>
+    </row>
+    <row r="187" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P187" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q187" s="26"/>
+      <c r="R187" s="26"/>
+      <c r="S187" s="26"/>
+      <c r="T187" s="26"/>
+    </row>
+    <row r="188" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P188" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q188" s="26"/>
+      <c r="R188" s="26"/>
+      <c r="S188" s="26"/>
+      <c r="T188" s="26"/>
+    </row>
+    <row r="189" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P189" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q189" s="26"/>
+      <c r="R189" s="26"/>
+      <c r="S189" s="26"/>
+      <c r="T189" s="26"/>
+    </row>
+    <row r="190" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P190" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q190" s="26"/>
+      <c r="R190" s="26"/>
+      <c r="S190" s="26"/>
+      <c r="T190" s="26"/>
+    </row>
+    <row r="191" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P191" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q191" s="26"/>
+      <c r="R191" s="26"/>
+      <c r="S191" s="26"/>
+      <c r="T191" s="26"/>
+    </row>
+    <row r="192" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P192" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q192" s="26"/>
+      <c r="R192" s="26"/>
+      <c r="S192" s="26"/>
+      <c r="T192" s="26"/>
+    </row>
+    <row r="193" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P193" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q193" s="26"/>
+      <c r="R193" s="26"/>
+      <c r="S193" s="26"/>
+      <c r="T193" s="26"/>
+    </row>
+    <row r="194" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P194" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q194" s="26"/>
+      <c r="R194" s="26"/>
+      <c r="S194" s="26"/>
+      <c r="T194" s="26"/>
+    </row>
+    <row r="195" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P195" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q195" s="26"/>
+      <c r="R195" s="26"/>
+      <c r="S195" s="26"/>
+      <c r="T195" s="26"/>
+    </row>
+    <row r="196" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P196" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="26"/>
+      <c r="S196" s="26"/>
+      <c r="T196" s="26"/>
+    </row>
+    <row r="197" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P197" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q197" s="26"/>
+      <c r="R197" s="26"/>
+      <c r="S197" s="26"/>
+      <c r="T197" s="26"/>
+    </row>
+    <row r="198" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P198" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+      <c r="T198" s="26"/>
+    </row>
+    <row r="199" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P199" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q199" s="26"/>
+      <c r="R199" s="26"/>
+      <c r="S199" s="26"/>
+      <c r="T199" s="26"/>
+    </row>
+    <row r="200" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P200" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="S200" s="26"/>
+      <c r="T200" s="26"/>
+    </row>
+    <row r="201" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P201" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="S201" s="26"/>
+      <c r="T201" s="26"/>
+    </row>
+    <row r="202" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P202" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="S202" s="26"/>
+      <c r="T202" s="26"/>
+    </row>
+    <row r="203" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P203" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="S203" s="26"/>
+      <c r="T203" s="26"/>
+    </row>
+    <row r="204" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P204" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q204" s="26"/>
+      <c r="R204" s="26"/>
+      <c r="S204" s="26"/>
+      <c r="T204" s="26"/>
+    </row>
+    <row r="205" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P205" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q205" s="26"/>
+      <c r="R205" s="26"/>
+      <c r="S205" s="26"/>
+      <c r="T205" s="26"/>
+    </row>
+    <row r="206" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P206" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q206" s="26"/>
+      <c r="R206" s="26"/>
+      <c r="S206" s="26"/>
+      <c r="T206" s="26"/>
+    </row>
+    <row r="207" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P207" s="26"/>
+      <c r="Q207" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R207" s="26"/>
+      <c r="S207" s="26"/>
+      <c r="T207" s="26"/>
+    </row>
+    <row r="208" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P208" s="26"/>
+      <c r="Q208" s="26"/>
+      <c r="R208" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="S208" s="26"/>
+      <c r="T208" s="26"/>
+    </row>
+    <row r="209" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P209" s="26"/>
+      <c r="Q209" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R209" s="26"/>
+      <c r="S209" s="26"/>
+      <c r="T209" s="26"/>
+    </row>
+    <row r="210" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P210" s="26"/>
+      <c r="Q210" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R210" s="26"/>
+      <c r="S210" s="26"/>
+      <c r="T210" s="26"/>
+    </row>
+    <row r="211" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P211" s="26"/>
+      <c r="Q211" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R211" s="26"/>
+      <c r="S211" s="26"/>
+      <c r="T211" s="26"/>
+    </row>
+    <row r="212" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P212" s="26"/>
+      <c r="Q212" s="26"/>
+      <c r="R212" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S212" s="26"/>
+      <c r="T212" s="26"/>
+    </row>
+    <row r="213" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P213" s="26"/>
+      <c r="Q213" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R213" s="26"/>
+      <c r="S213" s="26"/>
+      <c r="T213" s="26"/>
+    </row>
+    <row r="214" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P214" s="26"/>
+      <c r="Q214" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R214" s="26"/>
+      <c r="S214" s="26"/>
+      <c r="T214" s="26"/>
+    </row>
+    <row r="215" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P215" s="26"/>
+      <c r="Q215" s="26"/>
+      <c r="R215" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S215" s="26"/>
+      <c r="T215" s="26"/>
+    </row>
+    <row r="216" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P216" s="26"/>
+      <c r="Q216" s="26"/>
+      <c r="R216" s="26"/>
+      <c r="S216" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="T216" s="26"/>
+    </row>
+    <row r="217" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P217" s="26"/>
+      <c r="Q217" s="26"/>
+      <c r="R217" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S217" s="26"/>
+      <c r="T217" s="26"/>
+    </row>
+    <row r="218" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P218" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q218" s="26"/>
+      <c r="R218" s="26"/>
+      <c r="S218" s="26"/>
+      <c r="T218" s="26"/>
+    </row>
+    <row r="219" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P219" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q219" s="26"/>
+      <c r="R219" s="26"/>
+      <c r="S219" s="26"/>
+      <c r="T219" s="26"/>
+    </row>
+    <row r="220" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P220" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q220" s="26"/>
+      <c r="R220" s="26"/>
+      <c r="S220" s="26"/>
+      <c r="T220" s="26"/>
+    </row>
+    <row r="221" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P221" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="26"/>
+      <c r="S221" s="26"/>
+      <c r="T221" s="26"/>
+    </row>
+    <row r="222" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P222" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="26"/>
+      <c r="S222" s="26"/>
+      <c r="T222" s="26"/>
+    </row>
+    <row r="223" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P223" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q223" s="26"/>
+      <c r="R223" s="26"/>
+      <c r="S223" s="26"/>
+      <c r="T223" s="26"/>
+    </row>
+    <row r="224" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P224" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q224" s="26"/>
+      <c r="R224" s="26"/>
+      <c r="S224" s="26"/>
+      <c r="T224" s="26"/>
+    </row>
+    <row r="225" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P225" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+      <c r="T225" s="26"/>
+    </row>
+    <row r="226" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P226" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q226" s="26"/>
+      <c r="R226" s="26"/>
+      <c r="S226" s="26"/>
+      <c r="T226" s="26"/>
+    </row>
+    <row r="227" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P227" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q227" s="26"/>
+      <c r="R227" s="26"/>
+      <c r="S227" s="26"/>
+      <c r="T227" s="26"/>
+    </row>
+    <row r="228" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P228" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q228" s="26"/>
+      <c r="R228" s="26"/>
+      <c r="S228" s="26"/>
+      <c r="T228" s="26"/>
+    </row>
+    <row r="229" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P229" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q229" s="26"/>
+      <c r="R229" s="26"/>
+      <c r="S229" s="26"/>
+      <c r="T229" s="26"/>
+    </row>
+    <row r="230" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P230" s="26"/>
+      <c r="Q230" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R230" s="26"/>
+      <c r="S230" s="26"/>
+      <c r="T230" s="26"/>
+    </row>
+    <row r="231" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P231" s="26"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S231" s="26"/>
+      <c r="T231" s="26"/>
+    </row>
+    <row r="232" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+      <c r="T232" s="26"/>
+    </row>
+    <row r="233" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P233" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q233" s="26"/>
+      <c r="R233" s="26"/>
+      <c r="S233" s="26"/>
+      <c r="T233" s="26"/>
+    </row>
+    <row r="234" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P234" s="26"/>
+      <c r="Q234" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R234" s="26"/>
+      <c r="S234" s="26"/>
+      <c r="T234" s="26"/>
+    </row>
+    <row r="235" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P235" s="26"/>
+      <c r="Q235" s="26"/>
+      <c r="R235" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="S235" s="26"/>
+      <c r="T235" s="26"/>
+    </row>
+    <row r="236" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R236" s="26"/>
+      <c r="S236" s="26"/>
+      <c r="T236" s="26"/>
+    </row>
+    <row r="237" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P237" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q237" s="26"/>
+      <c r="R237" s="26"/>
+      <c r="S237" s="26"/>
+      <c r="T237" s="26"/>
+    </row>
+    <row r="238" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P238" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q238" s="26"/>
+      <c r="R238" s="26"/>
+      <c r="S238" s="26"/>
+      <c r="T238" s="26"/>
+    </row>
+    <row r="239" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P239" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="S239" s="26"/>
+      <c r="T239" s="26"/>
+    </row>
+    <row r="240" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P240" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q240" s="26"/>
+      <c r="R240" s="26"/>
+      <c r="S240" s="26"/>
+      <c r="T240" s="26"/>
+    </row>
+    <row r="241" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P241" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q241" s="26"/>
+      <c r="R241" s="26"/>
+      <c r="S241" s="26"/>
+      <c r="T241" s="26"/>
+    </row>
+    <row r="242" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P242" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q242" s="26"/>
+      <c r="R242" s="26"/>
+      <c r="S242" s="26"/>
+      <c r="T242" s="26"/>
+    </row>
+    <row r="243" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P243" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="S243" s="26"/>
+      <c r="T243" s="26"/>
+    </row>
+    <row r="244" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P244" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q244" s="26"/>
+      <c r="R244" s="26"/>
+      <c r="S244" s="26"/>
+      <c r="T244" s="26"/>
+    </row>
+    <row r="245" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P245" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q245" s="26"/>
+      <c r="R245" s="26"/>
+      <c r="S245" s="26"/>
+      <c r="T245" s="26"/>
+    </row>
+    <row r="246" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P246" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q246" s="26"/>
+      <c r="R246" s="26"/>
+      <c r="S246" s="26"/>
+      <c r="T246" s="26"/>
+    </row>
+    <row r="247" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P247" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q247" s="26"/>
+      <c r="R247" s="26"/>
+      <c r="S247" s="26"/>
+      <c r="T247" s="26"/>
+    </row>
+    <row r="248" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P248" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q248" s="26"/>
+      <c r="R248" s="26"/>
+      <c r="S248" s="26"/>
+      <c r="T248" s="26"/>
+    </row>
+    <row r="249" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P249" s="26"/>
+      <c r="Q249" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R249" s="26"/>
+      <c r="S249" s="26"/>
+      <c r="T249" s="26"/>
+    </row>
+    <row r="250" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P250" s="26"/>
+      <c r="Q250" s="26"/>
+      <c r="R250" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S250" s="26"/>
+      <c r="T250" s="26"/>
+    </row>
+    <row r="251" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P251" s="26"/>
+      <c r="Q251" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R251" s="26"/>
+      <c r="S251" s="26"/>
+      <c r="T251" s="26"/>
+    </row>
+    <row r="252" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P252" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q252" s="26"/>
+      <c r="R252" s="26"/>
+      <c r="S252" s="26"/>
+      <c r="T252" s="26"/>
+    </row>
+    <row r="253" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P253" s="26"/>
+      <c r="Q253" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R253" s="26"/>
+      <c r="S253" s="26"/>
+      <c r="T253" s="26"/>
+    </row>
+    <row r="254" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P254" s="26"/>
+      <c r="Q254" s="26"/>
+      <c r="R254" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="S254" s="26"/>
+      <c r="T254" s="26"/>
+    </row>
+    <row r="255" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P255" s="26"/>
+      <c r="Q255" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R255" s="26"/>
+      <c r="S255" s="26"/>
+      <c r="T255" s="26"/>
+    </row>
+    <row r="256" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P256" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q256" s="26"/>
+      <c r="R256" s="26"/>
+      <c r="S256" s="26"/>
+      <c r="T256" s="26"/>
+    </row>
+    <row r="257" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P257" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="26"/>
+      <c r="S257" s="26"/>
+      <c r="T257" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1787,12 +4036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
